--- a/card_data/cartomancy.xlsx
+++ b/card_data/cartomancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\dhmit\french-playing-cards\card_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreyravel/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EBA02C-A6C6-4D29-96C2-D257B4EAE52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF71CB1-031C-6F4F-ABED-F957A97E7B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3020" windowWidth="26020" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25000" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="471">
   <si>
     <t>number</t>
   </si>
@@ -145,9 +145,6 @@
     <t>consultation</t>
   </si>
   <si>
-    <t>minor advice</t>
-  </si>
-  <si>
     <t>homme blond</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>femme châtaigne blonde</t>
   </si>
   <si>
-    <t>belle-mèrer</t>
-  </si>
-  <si>
     <t>plus</t>
   </si>
   <si>
@@ -448,9 +442,6 @@
     <t>huge success</t>
   </si>
   <si>
-    <t>small bit of money</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -544,9 +535,6 @@
     <t>prostitute</t>
   </si>
   <si>
-    <t>desirs</t>
-  </si>
-  <si>
     <t>hypocrisie</t>
   </si>
   <si>
@@ -589,9 +577,6 @@
     <t>handicaps</t>
   </si>
   <si>
-    <t>small bits of news</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -733,9 +718,6 @@
     <t>inhumanity</t>
   </si>
   <si>
-    <t>pertres</t>
-  </si>
-  <si>
     <t>le feu</t>
   </si>
   <si>
@@ -769,9 +751,6 @@
     <t>ambition</t>
   </si>
   <si>
-    <t>singlehood</t>
-  </si>
-  <si>
     <t>réligieuse</t>
   </si>
   <si>
@@ -814,9 +793,6 @@
     <t>trial</t>
   </si>
   <si>
-    <t>esperance</t>
-  </si>
-  <si>
     <t>force</t>
   </si>
   <si>
@@ -1180,9 +1156,6 @@
     <t>handicap</t>
   </si>
   <si>
-    <t>small bit of news</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -1460,6 +1433,36 @@
   </si>
   <si>
     <t>thirty_one</t>
+  </si>
+  <si>
+    <t>not married</t>
+  </si>
+  <si>
+    <t>contagious disease</t>
+  </si>
+  <si>
+    <t>female deception</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t>everyday news</t>
+  </si>
+  <si>
+    <t>pocket change</t>
+  </si>
+  <si>
+    <t>désirs</t>
+  </si>
+  <si>
+    <t>pertes</t>
+  </si>
+  <si>
+    <t>espérance</t>
+  </si>
+  <si>
+    <t>belle-mère</t>
   </si>
 </sst>
 </file>
@@ -1794,26 +1797,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1827,13 +1830,13 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1848,12 +1851,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1862,15 +1865,15 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -1879,15 +1882,15 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -1896,15 +1899,15 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1913,15 +1916,15 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1930,16 +1933,16 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H6" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
@@ -1951,12 +1954,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1965,16 +1968,16 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -1986,12 +1989,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2000,33 +2003,33 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" t="s">
         <v>216</v>
       </c>
-      <c r="F8" t="s">
-        <v>221</v>
-      </c>
       <c r="G8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2035,16 +2038,16 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -2053,295 +2056,295 @@
         <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H10" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" t="s">
+        <v>345</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" t="s">
         <v>350</v>
       </c>
-      <c r="B10" t="s">
-        <v>466</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>354</v>
-      </c>
-      <c r="F10" t="s">
-        <v>355</v>
-      </c>
-      <c r="G10" t="s">
-        <v>339</v>
-      </c>
-      <c r="H10" t="s">
-        <v>356</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>351</v>
-      </c>
-      <c r="F11" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" t="s">
-        <v>353</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>354</v>
-      </c>
-      <c r="F12" t="s">
-        <v>358</v>
-      </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="J12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" t="s">
+        <v>457</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F13" t="s">
-        <v>357</v>
-      </c>
-      <c r="G13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" t="s">
-        <v>353</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" t="s">
+        <v>314</v>
+      </c>
+      <c r="H14" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>457</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="H15" t="s">
+        <v>396</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" t="s">
         <v>402</v>
       </c>
-      <c r="B14" t="s">
-        <v>466</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>406</v>
-      </c>
-      <c r="F14" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" t="s">
-        <v>322</v>
-      </c>
-      <c r="H14" t="s">
-        <v>407</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15" t="s">
-        <v>466</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" t="s">
+        <v>318</v>
+      </c>
+      <c r="H17" t="s">
+        <v>396</v>
+      </c>
+      <c r="I17" t="s">
+        <v>462</v>
+      </c>
+      <c r="J17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="F15" t="s">
-        <v>404</v>
-      </c>
-      <c r="G15" t="s">
-        <v>326</v>
-      </c>
-      <c r="H15" t="s">
-        <v>405</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>410</v>
-      </c>
-      <c r="F16" t="s">
-        <v>411</v>
-      </c>
-      <c r="G16" t="s">
-        <v>322</v>
-      </c>
-      <c r="H16" t="s">
-        <v>407</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B17" t="s">
-        <v>465</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>408</v>
-      </c>
-      <c r="F17" t="s">
-        <v>409</v>
-      </c>
-      <c r="G17" t="s">
-        <v>326</v>
-      </c>
-      <c r="H17" t="s">
-        <v>405</v>
-      </c>
-      <c r="I17" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="B18" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2350,33 +2353,33 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F18" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H18" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="I18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J18" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B19" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -2385,33 +2388,33 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F19" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H19" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2420,33 +2423,33 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" t="s">
+        <v>408</v>
+      </c>
+      <c r="I20" t="s">
+        <v>303</v>
+      </c>
+      <c r="J20" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" t="s">
         <v>305</v>
       </c>
-      <c r="H20" t="s">
-        <v>417</v>
-      </c>
-      <c r="I20" t="s">
-        <v>311</v>
-      </c>
-      <c r="J20" t="s">
-        <v>312</v>
-      </c>
-      <c r="K20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B21" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2455,173 +2458,173 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H21" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" t="s">
+        <v>308</v>
+      </c>
+      <c r="J21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" t="s">
+        <v>281</v>
+      </c>
+      <c r="H22" t="s">
+        <v>419</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B23" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" t="s">
+        <v>416</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B24" t="s">
+        <v>456</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" t="s">
+        <v>419</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" t="s">
+        <v>456</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
         <v>420</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>421</v>
       </c>
-      <c r="G21" t="s">
-        <v>298</v>
-      </c>
-      <c r="H21" t="s">
-        <v>415</v>
-      </c>
-      <c r="I21" t="s">
-        <v>316</v>
-      </c>
-      <c r="J21" t="s">
-        <v>317</v>
-      </c>
-      <c r="K21" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>426</v>
-      </c>
-      <c r="F22" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" t="s">
-        <v>428</v>
-      </c>
-      <c r="I22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B23" t="s">
-        <v>466</v>
-      </c>
-      <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>423</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>416</v>
+      </c>
+      <c r="I25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H23" t="s">
-        <v>425</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C24" s="1">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>431</v>
-      </c>
-      <c r="F24" t="s">
-        <v>432</v>
-      </c>
-      <c r="G24" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" t="s">
-        <v>428</v>
-      </c>
-      <c r="I24" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B25" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F25" t="s">
-        <v>430</v>
-      </c>
-      <c r="G25" t="s">
-        <v>285</v>
-      </c>
-      <c r="H25" t="s">
-        <v>425</v>
-      </c>
-      <c r="I25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="B26" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C26" s="1">
         <v>9</v>
@@ -2630,33 +2633,33 @@
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F26" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C27" s="1">
         <v>9</v>
@@ -2665,33 +2668,33 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F27" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H27" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="I27" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" t="s">
         <v>115</v>
       </c>
-      <c r="J27" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B28" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C28" s="1">
         <v>9</v>
@@ -2700,33 +2703,33 @@
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="F28" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" t="s">
         <v>125</v>
       </c>
-      <c r="J28" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C29" s="1">
         <v>9</v>
@@ -2735,33 +2738,33 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="G29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H29" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B30" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
@@ -2770,33 +2773,33 @@
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F30" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="G30" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H30" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
@@ -2805,33 +2808,33 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F31" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="H31" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C32" s="1">
         <v>8</v>
@@ -2840,33 +2843,33 @@
         <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F32" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G32" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H32" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C33" s="1">
         <v>8</v>
@@ -2875,33 +2878,33 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F33" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H33" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
@@ -2910,33 +2913,33 @@
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F34" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B35" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
@@ -2945,33 +2948,33 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F35" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="G35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H35" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B36" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C36" s="1">
         <v>7</v>
@@ -2980,33 +2983,33 @@
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F36" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I36" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B37" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C37" s="1">
         <v>7</v>
@@ -3015,33 +3018,33 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F37" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="G37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="I37" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>13</v>
@@ -3071,12 +3074,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>13</v>
@@ -3106,12 +3109,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -3120,10 +3123,10 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
         <v>32</v>
-      </c>
-      <c r="F40" t="s">
-        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
@@ -3132,21 +3135,21 @@
         <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
         <v>30</v>
       </c>
       <c r="K40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>13</v>
@@ -3173,435 +3176,435 @@
         <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" t="s">
-        <v>466</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>470</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>457</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
         <v>37</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s">
         <v>45</v>
       </c>
-      <c r="F42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="I44" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>456</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" t="s">
         <v>40</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>466</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>465</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>58</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s">
+        <v>463</v>
+      </c>
+      <c r="K45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K44" t="s">
+      <c r="B46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" t="s">
-        <v>465</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s">
-        <v>53</v>
-      </c>
-      <c r="J45" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>61</v>
       </c>
-      <c r="B46" t="s">
-        <v>466</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="F47" t="s">
         <v>62</v>
       </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G47" t="s">
+        <v>63</v>
+      </c>
+      <c r="H47" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>456</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s">
         <v>70</v>
       </c>
-      <c r="F46" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I46" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>456</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
         <v>74</v>
       </c>
-      <c r="K46" t="s">
+      <c r="F49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G49" t="s">
         <v>63</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H49" t="s">
         <v>64</v>
       </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
-      <c r="H47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" t="s">
-        <v>68</v>
-      </c>
-      <c r="K47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" t="s">
-        <v>465</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" t="s">
-        <v>82</v>
-      </c>
-      <c r="G48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
+        <v>462</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J48" t="s">
-        <v>79</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="B50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" t="s">
-        <v>465</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" t="s">
-        <v>78</v>
-      </c>
-      <c r="J49" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+      <c r="F50" t="s">
         <v>85</v>
       </c>
-      <c r="B50" t="s">
-        <v>466</v>
-      </c>
-      <c r="C50" s="1">
-        <v>10</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>86</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>87</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>88</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>89</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>90</v>
       </c>
-      <c r="J50" t="s">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
         <v>91</v>
       </c>
-      <c r="K50" t="s">
+      <c r="F51" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>466</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
-      </c>
-      <c r="D51" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>93</v>
       </c>
-      <c r="F51" t="s">
+      <c r="H51" t="s">
         <v>94</v>
       </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>95</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>96</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>97</v>
       </c>
-      <c r="J51" t="s">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J52" t="s">
+        <v>106</v>
+      </c>
+      <c r="K52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>456</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
         <v>98</v>
       </c>
-      <c r="K51" t="s">
+      <c r="F53" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>465</v>
-      </c>
-      <c r="C52" s="1">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I52" t="s">
-        <v>107</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="G53" t="s">
+        <v>93</v>
+      </c>
+      <c r="H53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>101</v>
+      </c>
+      <c r="K53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>465</v>
-      </c>
-      <c r="C53" s="1">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" t="s">
-        <v>100</v>
-      </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-      <c r="G53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" t="s">
-        <v>96</v>
-      </c>
-      <c r="I53" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" t="s">
-        <v>103</v>
-      </c>
-      <c r="K53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B54" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
@@ -3610,33 +3613,33 @@
         <v>11</v>
       </c>
       <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" t="s">
         <v>118</v>
       </c>
-      <c r="F54" t="s">
+      <c r="H54" t="s">
         <v>119</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>120</v>
       </c>
-      <c r="H54" t="s">
-        <v>121</v>
-      </c>
-      <c r="I54" t="s">
-        <v>122</v>
-      </c>
       <c r="J54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
@@ -3645,33 +3648,33 @@
         <v>10</v>
       </c>
       <c r="E55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
         <v>111</v>
       </c>
-      <c r="F55" t="s">
+      <c r="H55" t="s">
         <v>112</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>113</v>
       </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
         <v>114</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>115</v>
       </c>
-      <c r="J55" t="s">
-        <v>116</v>
-      </c>
-      <c r="K55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
@@ -3680,33 +3683,33 @@
         <v>11</v>
       </c>
       <c r="E56" t="s">
+        <v>121</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56" t="s">
         <v>123</v>
       </c>
-      <c r="F56" t="s">
+      <c r="J56" t="s">
         <v>124</v>
       </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>125</v>
       </c>
-      <c r="J56" t="s">
-        <v>126</v>
-      </c>
-      <c r="K56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
@@ -3715,33 +3718,33 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" t="s">
+        <v>111</v>
+      </c>
+      <c r="H57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I57" t="s">
         <v>128</v>
       </c>
-      <c r="F57" t="s">
+      <c r="J57" t="s">
         <v>129</v>
       </c>
-      <c r="G57" t="s">
-        <v>113</v>
-      </c>
-      <c r="H57" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J57" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="B58" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
@@ -3750,33 +3753,33 @@
         <v>11</v>
       </c>
       <c r="E58" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
         <v>141</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>142</v>
       </c>
-      <c r="G58" t="s">
+      <c r="J58" t="s">
+        <v>136</v>
+      </c>
+      <c r="K58" t="s">
         <v>143</v>
       </c>
-      <c r="H58" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" t="s">
-        <v>145</v>
-      </c>
-      <c r="J58" t="s">
-        <v>139</v>
-      </c>
-      <c r="K58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C59" s="1">
         <v>8</v>
@@ -3785,33 +3788,33 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
         <v>134</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>135</v>
       </c>
-      <c r="G59" t="s">
+      <c r="J59" t="s">
         <v>136</v>
       </c>
-      <c r="H59" t="s">
+      <c r="K59" t="s">
         <v>137</v>
       </c>
-      <c r="I59" t="s">
-        <v>138</v>
-      </c>
-      <c r="J59" t="s">
-        <v>139</v>
-      </c>
-      <c r="K59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C60" s="1">
         <v>8</v>
@@ -3820,33 +3823,33 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J60" t="s">
         <v>152</v>
       </c>
-      <c r="F60" t="s">
+      <c r="K60" t="s">
         <v>153</v>
       </c>
-      <c r="G60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H60" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" t="s">
-        <v>154</v>
-      </c>
-      <c r="J60" t="s">
-        <v>155</v>
-      </c>
-      <c r="K60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C61" s="1">
         <v>8</v>
@@ -3855,33 +3858,33 @@
         <v>10</v>
       </c>
       <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" t="s">
+        <v>145</v>
+      </c>
+      <c r="G61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" t="s">
         <v>147</v>
       </c>
-      <c r="F61" t="s">
+      <c r="K61" t="s">
         <v>148</v>
       </c>
-      <c r="G61" t="s">
-        <v>136</v>
-      </c>
-      <c r="H61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" t="s">
-        <v>149</v>
-      </c>
-      <c r="J61" t="s">
-        <v>150</v>
-      </c>
-      <c r="K61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B62" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C62" s="1">
         <v>7</v>
@@ -3890,33 +3893,33 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" t="s">
+        <v>163</v>
+      </c>
+      <c r="J62" t="s">
         <v>164</v>
       </c>
-      <c r="F62" t="s">
+      <c r="K62" t="s">
         <v>165</v>
       </c>
-      <c r="G62" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" t="s">
-        <v>167</v>
-      </c>
-      <c r="J62" t="s">
-        <v>168</v>
-      </c>
-      <c r="K62" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B63" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C63" s="1">
         <v>7</v>
@@ -3925,33 +3928,33 @@
         <v>10</v>
       </c>
       <c r="E63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" t="s">
+        <v>156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" t="s">
         <v>158</v>
       </c>
-      <c r="F63" t="s">
+      <c r="J63" t="s">
         <v>159</v>
       </c>
-      <c r="G63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="K63" t="s">
         <v>160</v>
       </c>
-      <c r="I63" t="s">
-        <v>161</v>
-      </c>
-      <c r="J63" t="s">
-        <v>162</v>
-      </c>
-      <c r="K63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C64" s="1">
         <v>7</v>
@@ -3960,33 +3963,33 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H64" t="s">
+        <v>162</v>
+      </c>
+      <c r="I64" t="s">
+        <v>168</v>
+      </c>
+      <c r="J64" t="s">
+        <v>169</v>
+      </c>
+      <c r="K64" t="s">
         <v>170</v>
       </c>
-      <c r="F64" t="s">
-        <v>171</v>
-      </c>
-      <c r="G64" t="s">
-        <v>143</v>
-      </c>
-      <c r="H64" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" t="s">
-        <v>172</v>
-      </c>
-      <c r="J64" t="s">
-        <v>173</v>
-      </c>
-      <c r="K64" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C65" s="1">
         <v>7</v>
@@ -3995,33 +3998,33 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H65" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" t="s">
+        <v>173</v>
+      </c>
+      <c r="J65" t="s">
+        <v>174</v>
+      </c>
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F65" t="s">
-        <v>176</v>
-      </c>
-      <c r="G65" t="s">
-        <v>136</v>
-      </c>
-      <c r="H65" t="s">
-        <v>160</v>
-      </c>
-      <c r="I65" t="s">
-        <v>177</v>
-      </c>
-      <c r="J65" t="s">
-        <v>178</v>
-      </c>
-      <c r="K65" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="B66" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>13</v>
@@ -4030,16 +4033,16 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -4051,12 +4054,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>13</v>
@@ -4065,16 +4068,16 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -4086,12 +4089,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>13</v>
@@ -4100,33 +4103,33 @@
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J68" t="s">
         <v>30</v>
       </c>
       <c r="K68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>13</v>
@@ -4135,16 +4138,16 @@
         <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H69" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I69" t="s">
         <v>29</v>
@@ -4153,435 +4156,435 @@
         <v>30</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B70" t="s">
+        <v>457</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" t="s">
+        <v>187</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" t="s">
+        <v>188</v>
+      </c>
+      <c r="I70" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B71" t="s">
+        <v>457</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" t="s">
+        <v>189</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G71" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" t="s">
         <v>190</v>
       </c>
-      <c r="B70" t="s">
-        <v>466</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>456</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
         <v>191</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F72" t="s">
         <v>192</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B73" t="s">
+        <v>456</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>193</v>
+      </c>
+      <c r="F73" t="s">
+        <v>194</v>
+      </c>
+      <c r="G73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s">
+        <v>463</v>
+      </c>
+      <c r="K73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" t="s">
+        <v>457</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74" t="s">
+        <v>197</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I74" t="s">
+        <v>71</v>
+      </c>
+      <c r="J74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
+        <v>457</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>199</v>
+      </c>
+      <c r="F75" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>66</v>
+      </c>
+      <c r="K75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" t="s">
+        <v>456</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>202</v>
+      </c>
+      <c r="F76" t="s">
+        <v>203</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>198</v>
+      </c>
+      <c r="I76" t="s">
+        <v>81</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" t="s">
+        <v>205</v>
+      </c>
+      <c r="G77" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" t="s">
+        <v>462</v>
+      </c>
+      <c r="J77" t="s">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>468</v>
+      </c>
+      <c r="F78" t="s">
+        <v>222</v>
+      </c>
+      <c r="G78" t="s">
+        <v>39</v>
+      </c>
+      <c r="H78" t="s">
+        <v>223</v>
+      </c>
+      <c r="I78" t="s">
         <v>88</v>
       </c>
-      <c r="H70" t="s">
-        <v>193</v>
-      </c>
-      <c r="I70" t="s">
-        <v>48</v>
-      </c>
-      <c r="J70" t="s">
-        <v>49</v>
-      </c>
-      <c r="K70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" t="s">
-        <v>466</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>194</v>
-      </c>
-      <c r="F71" t="s">
-        <v>192</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="J78" t="s">
+        <v>89</v>
+      </c>
+      <c r="K78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" t="s">
+        <v>457</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" t="s">
+        <v>220</v>
+      </c>
+      <c r="H79" t="s">
+        <v>221</v>
+      </c>
+      <c r="I79" t="s">
         <v>95</v>
       </c>
-      <c r="H71" t="s">
-        <v>195</v>
-      </c>
-      <c r="I71" t="s">
-        <v>42</v>
-      </c>
-      <c r="J71" t="s">
-        <v>43</v>
-      </c>
-      <c r="K71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B72" t="s">
-        <v>465</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>196</v>
-      </c>
-      <c r="F72" t="s">
-        <v>197</v>
-      </c>
-      <c r="G72" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s">
-        <v>193</v>
-      </c>
-      <c r="I72" t="s">
-        <v>58</v>
-      </c>
-      <c r="J72" t="s">
-        <v>59</v>
-      </c>
-      <c r="K72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" t="s">
-        <v>465</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>198</v>
-      </c>
-      <c r="F73" t="s">
-        <v>199</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" t="s">
-        <v>195</v>
-      </c>
-      <c r="I73" t="s">
-        <v>53</v>
-      </c>
-      <c r="J73" t="s">
-        <v>54</v>
-      </c>
-      <c r="K73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" t="s">
-        <v>466</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" t="s">
-        <v>201</v>
-      </c>
-      <c r="F74" t="s">
-        <v>202</v>
-      </c>
-      <c r="G74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" t="s">
-        <v>203</v>
-      </c>
-      <c r="I74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J74" t="s">
-        <v>74</v>
-      </c>
-      <c r="K74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" t="s">
-        <v>466</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" t="s">
-        <v>204</v>
-      </c>
-      <c r="F75" t="s">
-        <v>205</v>
-      </c>
-      <c r="G75" t="s">
-        <v>65</v>
-      </c>
-      <c r="H75" t="s">
-        <v>206</v>
-      </c>
-      <c r="I75" t="s">
-        <v>67</v>
-      </c>
-      <c r="J75" t="s">
-        <v>68</v>
-      </c>
-      <c r="K75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" t="s">
-        <v>465</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" t="s">
-        <v>207</v>
-      </c>
-      <c r="F76" t="s">
-        <v>208</v>
-      </c>
-      <c r="G76" t="s">
-        <v>72</v>
-      </c>
-      <c r="H76" t="s">
-        <v>203</v>
-      </c>
-      <c r="I76" t="s">
-        <v>83</v>
-      </c>
-      <c r="J76" t="s">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B77" t="s">
-        <v>465</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77" t="s">
-        <v>210</v>
-      </c>
-      <c r="G77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" t="s">
-        <v>206</v>
-      </c>
-      <c r="I77" t="s">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s">
-        <v>79</v>
-      </c>
-      <c r="K77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B78" t="s">
-        <v>466</v>
-      </c>
-      <c r="C78" s="1">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="J79" t="s">
+        <v>96</v>
+      </c>
+      <c r="K79" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" t="s">
+        <v>456</v>
+      </c>
+      <c r="C80" s="1">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" t="s">
+        <v>225</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s">
+        <v>226</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" t="s">
+        <v>456</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
         <v>227</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F81" t="s">
         <v>228</v>
       </c>
-      <c r="G78" t="s">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="G81" t="s">
+        <v>220</v>
+      </c>
+      <c r="H81" t="s">
         <v>229</v>
       </c>
-      <c r="I78" t="s">
-        <v>90</v>
-      </c>
-      <c r="J78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B79" t="s">
-        <v>466</v>
-      </c>
-      <c r="C79" s="1">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" t="s">
-        <v>225</v>
-      </c>
-      <c r="H79" t="s">
-        <v>226</v>
-      </c>
-      <c r="I79" t="s">
-        <v>97</v>
-      </c>
-      <c r="J79" t="s">
-        <v>98</v>
-      </c>
-      <c r="K79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" t="s">
-        <v>465</v>
-      </c>
-      <c r="C80" s="1">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="I81" t="s">
+        <v>100</v>
+      </c>
+      <c r="J81" t="s">
+        <v>101</v>
+      </c>
+      <c r="K81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F80" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s">
-        <v>232</v>
-      </c>
-      <c r="I80" t="s">
-        <v>107</v>
-      </c>
-      <c r="J80" t="s">
-        <v>108</v>
-      </c>
-      <c r="K80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B81" t="s">
-        <v>465</v>
-      </c>
-      <c r="C81" s="1">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" t="s">
-        <v>233</v>
-      </c>
-      <c r="F81" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" t="s">
-        <v>225</v>
-      </c>
-      <c r="H81" t="s">
-        <v>235</v>
-      </c>
-      <c r="I81" t="s">
-        <v>102</v>
-      </c>
-      <c r="J81" t="s">
-        <v>103</v>
-      </c>
-      <c r="K81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="B82" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C82" s="1">
         <v>8</v>
@@ -4590,33 +4593,33 @@
         <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F82" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G82" t="s">
         <v>23</v>
       </c>
       <c r="H82" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C83" s="1">
         <v>8</v>
@@ -4625,33 +4628,33 @@
         <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="I83" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J83" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K83" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C84" s="1">
         <v>8</v>
@@ -4660,33 +4663,33 @@
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G84" t="s">
         <v>23</v>
       </c>
       <c r="H84" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C85" s="1">
         <v>8</v>
@@ -4695,33 +4698,33 @@
         <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F85" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="I85" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B86" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C86" s="1">
         <v>7</v>
@@ -4730,33 +4733,33 @@
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F86" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H86" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K86" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B87" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C87" s="1">
         <v>7</v>
@@ -4765,33 +4768,33 @@
         <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G87" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K87" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B88" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C88" s="1">
         <v>7</v>
@@ -4800,33 +4803,33 @@
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>254</v>
+        <v>469</v>
       </c>
       <c r="F88" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G88" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H88" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C89" s="1">
         <v>7</v>
@@ -4835,33 +4838,33 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G89" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H89" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I89" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J89" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K89" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>13</v>
@@ -4870,16 +4873,16 @@
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G90" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I90" t="s">
         <v>25</v>
@@ -4891,12 +4894,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>13</v>
@@ -4905,16 +4908,16 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F91" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
@@ -4926,12 +4929,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>13</v>
@@ -4940,33 +4943,33 @@
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F92" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J92" t="s">
         <v>30</v>
       </c>
       <c r="K92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B93" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>13</v>
@@ -4975,16 +4978,16 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F93" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G93" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H93" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I93" t="s">
         <v>29</v>
@@ -4993,295 +4996,295 @@
         <v>30</v>
       </c>
       <c r="K93" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" t="s">
+        <v>269</v>
+      </c>
+      <c r="G94" t="s">
+        <v>270</v>
+      </c>
+      <c r="H94" t="s">
+        <v>267</v>
+      </c>
+      <c r="I94" t="s">
+        <v>46</v>
+      </c>
+      <c r="J94" t="s">
+        <v>47</v>
+      </c>
+      <c r="K94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" t="s">
+        <v>457</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" t="s">
+        <v>267</v>
+      </c>
+      <c r="I95" t="s">
+        <v>41</v>
+      </c>
+      <c r="J95" t="s">
+        <v>42</v>
+      </c>
+      <c r="K95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" t="s">
+        <v>273</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" t="s">
+        <v>267</v>
+      </c>
+      <c r="I96" t="s">
+        <v>56</v>
+      </c>
+      <c r="J96" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B97" t="s">
+        <v>456</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" t="s">
         <v>271</v>
       </c>
-      <c r="B94" t="s">
-        <v>466</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="G97" t="s">
+        <v>266</v>
+      </c>
+      <c r="H97" t="s">
+        <v>267</v>
+      </c>
+      <c r="I97" t="s">
+        <v>51</v>
+      </c>
+      <c r="J97" t="s">
+        <v>463</v>
+      </c>
+      <c r="K97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" t="s">
+        <v>457</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>279</v>
+      </c>
+      <c r="F98" t="s">
+        <v>280</v>
+      </c>
+      <c r="G98" t="s">
+        <v>281</v>
+      </c>
+      <c r="H98" t="s">
+        <v>282</v>
+      </c>
+      <c r="I98" t="s">
+        <v>71</v>
+      </c>
+      <c r="J98" t="s">
+        <v>72</v>
+      </c>
+      <c r="K98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" t="s">
+        <v>457</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>275</v>
+      </c>
+      <c r="F99" t="s">
         <v>276</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G99" t="s">
         <v>277</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H99" t="s">
         <v>278</v>
       </c>
-      <c r="H94" t="s">
-        <v>275</v>
-      </c>
-      <c r="I94" t="s">
-        <v>48</v>
-      </c>
-      <c r="J94" t="s">
-        <v>49</v>
-      </c>
-      <c r="K94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" t="s">
-        <v>466</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D95" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" t="s">
-        <v>272</v>
-      </c>
-      <c r="F95" t="s">
-        <v>273</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="I99" t="s">
+        <v>65</v>
+      </c>
+      <c r="J99" t="s">
+        <v>66</v>
+      </c>
+      <c r="K99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H95" t="s">
-        <v>275</v>
-      </c>
-      <c r="I95" t="s">
-        <v>42</v>
-      </c>
-      <c r="J95" t="s">
-        <v>43</v>
-      </c>
-      <c r="K95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B96" t="s">
-        <v>465</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" t="s">
-        <v>280</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="B100" t="s">
+        <v>456</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" t="s">
+        <v>286</v>
+      </c>
+      <c r="G100" t="s">
         <v>281</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H100" t="s">
+        <v>282</v>
+      </c>
+      <c r="I100" t="s">
+        <v>81</v>
+      </c>
+      <c r="J100" t="s">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>283</v>
+      </c>
+      <c r="F101" t="s">
+        <v>284</v>
+      </c>
+      <c r="G101" t="s">
+        <v>277</v>
+      </c>
+      <c r="H101" t="s">
         <v>278</v>
       </c>
-      <c r="H96" t="s">
-        <v>275</v>
-      </c>
-      <c r="I96" t="s">
-        <v>58</v>
-      </c>
-      <c r="J96" t="s">
-        <v>59</v>
-      </c>
-      <c r="K96" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B97" t="s">
-        <v>465</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" t="s">
-        <v>267</v>
-      </c>
-      <c r="F97" t="s">
-        <v>279</v>
-      </c>
-      <c r="G97" t="s">
-        <v>274</v>
-      </c>
-      <c r="H97" t="s">
-        <v>275</v>
-      </c>
-      <c r="I97" t="s">
-        <v>53</v>
-      </c>
-      <c r="J97" t="s">
-        <v>54</v>
-      </c>
-      <c r="K97" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B98" t="s">
-        <v>466</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="I101" t="s">
+        <v>76</v>
+      </c>
+      <c r="J101" t="s">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F98" t="s">
-        <v>288</v>
-      </c>
-      <c r="G98" t="s">
-        <v>289</v>
-      </c>
-      <c r="H98" t="s">
-        <v>290</v>
-      </c>
-      <c r="I98" t="s">
-        <v>73</v>
-      </c>
-      <c r="J98" t="s">
-        <v>74</v>
-      </c>
-      <c r="K98" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B99" t="s">
-        <v>466</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>283</v>
-      </c>
-      <c r="F99" t="s">
-        <v>284</v>
-      </c>
-      <c r="G99" t="s">
-        <v>285</v>
-      </c>
-      <c r="H99" t="s">
-        <v>286</v>
-      </c>
-      <c r="I99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J99" t="s">
-        <v>68</v>
-      </c>
-      <c r="K99" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B100" t="s">
-        <v>465</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" t="s">
-        <v>294</v>
-      </c>
-      <c r="G100" t="s">
-        <v>289</v>
-      </c>
-      <c r="H100" t="s">
-        <v>290</v>
-      </c>
-      <c r="I100" t="s">
-        <v>83</v>
-      </c>
-      <c r="J100" t="s">
-        <v>79</v>
-      </c>
-      <c r="K100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B101" t="s">
-        <v>465</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" t="s">
-        <v>10</v>
-      </c>
-      <c r="E101" t="s">
-        <v>291</v>
-      </c>
-      <c r="F101" t="s">
-        <v>292</v>
-      </c>
-      <c r="G101" t="s">
-        <v>285</v>
-      </c>
-      <c r="H101" t="s">
-        <v>286</v>
-      </c>
-      <c r="I101" t="s">
-        <v>78</v>
-      </c>
-      <c r="J101" t="s">
-        <v>79</v>
-      </c>
-      <c r="K101" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="B102" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -5290,33 +5293,33 @@
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F102" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G102" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H102" t="s">
+        <v>291</v>
+      </c>
+      <c r="I102" t="s">
+        <v>298</v>
+      </c>
+      <c r="J102" t="s">
         <v>299</v>
       </c>
-      <c r="I102" t="s">
-        <v>306</v>
-      </c>
-      <c r="J102" t="s">
-        <v>307</v>
-      </c>
       <c r="K102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5325,33 +5328,33 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F103" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G103" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H103" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I103" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J103" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K103" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B104" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
@@ -5360,33 +5363,33 @@
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F104" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G104" t="s">
+        <v>297</v>
+      </c>
+      <c r="H104" t="s">
+        <v>291</v>
+      </c>
+      <c r="I104" t="s">
+        <v>303</v>
+      </c>
+      <c r="J104" t="s">
+        <v>304</v>
+      </c>
+      <c r="K104" t="s">
         <v>305</v>
       </c>
-      <c r="H104" t="s">
-        <v>299</v>
-      </c>
-      <c r="I104" t="s">
-        <v>311</v>
-      </c>
-      <c r="J104" t="s">
-        <v>312</v>
-      </c>
-      <c r="K104" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -5395,173 +5398,173 @@
         <v>10</v>
       </c>
       <c r="E105" t="s">
+        <v>306</v>
+      </c>
+      <c r="F105" t="s">
+        <v>307</v>
+      </c>
+      <c r="G105" t="s">
+        <v>290</v>
+      </c>
+      <c r="H105" t="s">
+        <v>291</v>
+      </c>
+      <c r="I105" t="s">
+        <v>308</v>
+      </c>
+      <c r="J105" t="s">
+        <v>309</v>
+      </c>
+      <c r="K105" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" t="s">
+        <v>457</v>
+      </c>
+      <c r="C106" s="1">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>312</v>
+      </c>
+      <c r="F106" t="s">
+        <v>313</v>
+      </c>
+      <c r="G106" t="s">
         <v>314</v>
       </c>
-      <c r="F105" t="s">
+      <c r="H106" t="s">
         <v>315</v>
       </c>
-      <c r="G105" t="s">
-        <v>298</v>
-      </c>
-      <c r="H105" t="s">
-        <v>299</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
+        <v>88</v>
+      </c>
+      <c r="J106" t="s">
+        <v>89</v>
+      </c>
+      <c r="K106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s">
+        <v>457</v>
+      </c>
+      <c r="C107" s="1">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
         <v>316</v>
       </c>
-      <c r="J105" t="s">
+      <c r="F107" t="s">
         <v>317</v>
       </c>
-      <c r="K105" t="s">
+      <c r="G107" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+      <c r="H107" t="s">
         <v>319</v>
       </c>
-      <c r="B106" t="s">
-        <v>466</v>
-      </c>
-      <c r="C106" s="1">
-        <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="I107" t="s">
+        <v>95</v>
+      </c>
+      <c r="J107" t="s">
+        <v>96</v>
+      </c>
+      <c r="K107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" t="s">
+        <v>456</v>
+      </c>
+      <c r="C108" s="1">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>322</v>
+      </c>
+      <c r="F108" t="s">
+        <v>323</v>
+      </c>
+      <c r="G108" t="s">
+        <v>314</v>
+      </c>
+      <c r="H108" t="s">
+        <v>315</v>
+      </c>
+      <c r="I108" t="s">
+        <v>105</v>
+      </c>
+      <c r="J108" t="s">
+        <v>106</v>
+      </c>
+      <c r="K108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" t="s">
+        <v>456</v>
+      </c>
+      <c r="C109" s="1">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
         <v>320</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F109" t="s">
         <v>321</v>
       </c>
-      <c r="G106" t="s">
-        <v>322</v>
-      </c>
-      <c r="H106" t="s">
-        <v>323</v>
-      </c>
-      <c r="I106" t="s">
-        <v>90</v>
-      </c>
-      <c r="J106" t="s">
-        <v>91</v>
-      </c>
-      <c r="K106" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="G109" t="s">
+        <v>318</v>
+      </c>
+      <c r="H109" t="s">
         <v>319</v>
       </c>
-      <c r="B107" t="s">
-        <v>466</v>
-      </c>
-      <c r="C107" s="1">
-        <v>10</v>
-      </c>
-      <c r="D107" t="s">
-        <v>10</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="I109" t="s">
+        <v>100</v>
+      </c>
+      <c r="J109" t="s">
+        <v>101</v>
+      </c>
+      <c r="K109" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F107" t="s">
-        <v>325</v>
-      </c>
-      <c r="G107" t="s">
-        <v>326</v>
-      </c>
-      <c r="H107" t="s">
-        <v>327</v>
-      </c>
-      <c r="I107" t="s">
-        <v>97</v>
-      </c>
-      <c r="J107" t="s">
-        <v>98</v>
-      </c>
-      <c r="K107" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B108" t="s">
-        <v>465</v>
-      </c>
-      <c r="C108" s="1">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" t="s">
-        <v>330</v>
-      </c>
-      <c r="F108" t="s">
-        <v>331</v>
-      </c>
-      <c r="G108" t="s">
-        <v>322</v>
-      </c>
-      <c r="H108" t="s">
-        <v>323</v>
-      </c>
-      <c r="I108" t="s">
-        <v>107</v>
-      </c>
-      <c r="J108" t="s">
-        <v>108</v>
-      </c>
-      <c r="K108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B109" t="s">
-        <v>465</v>
-      </c>
-      <c r="C109" s="1">
-        <v>10</v>
-      </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" t="s">
-        <v>328</v>
-      </c>
-      <c r="F109" t="s">
-        <v>329</v>
-      </c>
-      <c r="G109" t="s">
-        <v>326</v>
-      </c>
-      <c r="H109" t="s">
-        <v>327</v>
-      </c>
-      <c r="I109" t="s">
-        <v>102</v>
-      </c>
-      <c r="J109" t="s">
-        <v>103</v>
-      </c>
-      <c r="K109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="B110" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C110" s="1">
         <v>9</v>
@@ -5570,33 +5573,33 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F110" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G110" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H110" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K110" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B111" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C111" s="1">
         <v>9</v>
@@ -5605,33 +5608,33 @@
         <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F111" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G111" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H111" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I111" t="s">
+        <v>113</v>
+      </c>
+      <c r="J111" t="s">
+        <v>114</v>
+      </c>
+      <c r="K111" t="s">
         <v>115</v>
       </c>
-      <c r="J111" t="s">
-        <v>116</v>
-      </c>
-      <c r="K111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B112" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C112" s="1">
         <v>9</v>
@@ -5640,33 +5643,33 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F112" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G112" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H112" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I112" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" t="s">
+        <v>124</v>
+      </c>
+      <c r="K112" t="s">
         <v>125</v>
       </c>
-      <c r="J112" t="s">
-        <v>126</v>
-      </c>
-      <c r="K112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B113" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C113" s="1">
         <v>9</v>
@@ -5675,33 +5678,33 @@
         <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F113" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G113" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H113" t="s">
+        <v>328</v>
+      </c>
+      <c r="I113" t="s">
+        <v>128</v>
+      </c>
+      <c r="J113" t="s">
+        <v>129</v>
+      </c>
+      <c r="K113" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I113" t="s">
-        <v>130</v>
-      </c>
-      <c r="J113" t="s">
-        <v>131</v>
-      </c>
-      <c r="K113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="B114" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C114" s="1">
         <v>8</v>
@@ -5710,33 +5713,33 @@
         <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F114" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G114" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H114" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I114" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J114" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B115" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C115" s="1">
         <v>8</v>
@@ -5745,33 +5748,33 @@
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G115" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H115" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J115" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K115" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B116" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C116" s="1">
         <v>8</v>
@@ -5780,33 +5783,33 @@
         <v>11</v>
       </c>
       <c r="E116" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" t="s">
+        <v>341</v>
+      </c>
+      <c r="G116" t="s">
+        <v>213</v>
+      </c>
+      <c r="H116" t="s">
+        <v>338</v>
+      </c>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+      <c r="J116" t="s">
         <v>152</v>
       </c>
-      <c r="F116" t="s">
-        <v>349</v>
-      </c>
-      <c r="G116" t="s">
-        <v>218</v>
-      </c>
-      <c r="H116" t="s">
-        <v>346</v>
-      </c>
-      <c r="I116" t="s">
-        <v>154</v>
-      </c>
-      <c r="J116" t="s">
-        <v>155</v>
-      </c>
       <c r="K116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C117" s="1">
         <v>8</v>
@@ -5815,33 +5818,33 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
+        <v>144</v>
+      </c>
+      <c r="F117" t="s">
+        <v>341</v>
+      </c>
+      <c r="G117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H117" t="s">
+        <v>338</v>
+      </c>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+      <c r="J117" t="s">
         <v>147</v>
       </c>
-      <c r="F117" t="s">
-        <v>349</v>
-      </c>
-      <c r="G117" t="s">
-        <v>214</v>
-      </c>
-      <c r="H117" t="s">
-        <v>346</v>
-      </c>
-      <c r="I117" t="s">
-        <v>149</v>
-      </c>
-      <c r="J117" t="s">
-        <v>150</v>
-      </c>
       <c r="K117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C118" s="1">
         <v>7</v>
@@ -5850,33 +5853,33 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F118" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G118" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H118" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I118" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J118" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B119" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C119" s="1">
         <v>7</v>
@@ -5885,33 +5888,33 @@
         <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F119" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G119" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H119" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I119" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J119" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C120" s="1">
         <v>7</v>
@@ -5920,33 +5923,33 @@
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F120" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
+        <v>354</v>
+      </c>
+      <c r="H120" t="s">
+        <v>355</v>
+      </c>
+      <c r="I120" t="s">
+        <v>361</v>
+      </c>
+      <c r="J120" t="s">
         <v>362</v>
       </c>
-      <c r="H120" t="s">
+      <c r="K120" t="s">
         <v>363</v>
       </c>
-      <c r="I120" t="s">
-        <v>369</v>
-      </c>
-      <c r="J120" t="s">
-        <v>370</v>
-      </c>
-      <c r="K120" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C121" s="1">
         <v>7</v>
@@ -5955,33 +5958,33 @@
         <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F121" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G121" t="s">
+        <v>358</v>
+      </c>
+      <c r="H121" t="s">
+        <v>355</v>
+      </c>
+      <c r="I121" t="s">
         <v>366</v>
       </c>
-      <c r="H121" t="s">
-        <v>363</v>
-      </c>
-      <c r="I121" t="s">
-        <v>374</v>
-      </c>
       <c r="J121" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K121" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B122" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C122" s="1">
         <v>1</v>
@@ -5990,30 +5993,30 @@
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F122" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H122" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I122" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J122" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K122" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B123" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -6022,30 +6025,30 @@
         <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F123" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="H123" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="I123" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J123" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K123" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
@@ -6054,30 +6057,30 @@
         <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F124" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H124" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="I124" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J124" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K124" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B125" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -6086,30 +6089,30 @@
         <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F125" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H125" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="I125" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J125" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K125" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B126" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -6118,30 +6121,30 @@
         <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F126" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H126" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I126" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J126" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K126" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B127" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C127" s="1">
         <v>1</v>
@@ -6150,30 +6153,30 @@
         <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F127" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H127" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I127" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J127" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K127" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C128" s="1">
         <v>1</v>
@@ -6182,30 +6185,30 @@
         <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F128" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H128" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I128" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="J128" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K128" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B129" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C129" s="1">
         <v>1</v>
@@ -6214,30 +6217,30 @@
         <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F129" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="H129" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="I129" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="J129" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K129" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C130" s="1">
         <v>9</v>
@@ -6246,30 +6249,30 @@
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="H130" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I130" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J130" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K130" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C131" s="1">
         <v>9</v>
@@ -6278,30 +6281,30 @@
         <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="H131" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I131" t="s">
+        <v>113</v>
+      </c>
+      <c r="J131" t="s">
+        <v>114</v>
+      </c>
+      <c r="K131" t="s">
         <v>115</v>
       </c>
-      <c r="J131" t="s">
-        <v>116</v>
-      </c>
-      <c r="K131" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B132" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C132" s="1">
         <v>9</v>
@@ -6310,30 +6313,30 @@
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F132" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="H132" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I132" t="s">
+        <v>123</v>
+      </c>
+      <c r="J132" t="s">
+        <v>124</v>
+      </c>
+      <c r="K132" t="s">
         <v>125</v>
       </c>
-      <c r="J132" t="s">
-        <v>126</v>
-      </c>
-      <c r="K132" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C133" s="1">
         <v>9</v>
@@ -6342,22 +6345,22 @@
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F133" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H133" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I133" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K133" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
